--- a/sw_demand_june.xlsx
+++ b/sw_demand_june.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5fa4a464e8c68d89/Desktop/MDWS Final Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5fa4a464e8c68d89/Desktop/MDWS Final Project/pumped-hydropower-dispatch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{7EA8D413-39A0-4473-82A8-7403D3940F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{534AAB7A-0D16-4890-829F-FCD1D4B64E0B}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{7EA8D413-39A0-4473-82A8-7403D3940F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{927CAE91-F69D-40B3-9351-AB0C5F81443E}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0F7F9569-DFE2-4DB2-B1A3-911991E7ED28}"/>
+    <workbookView xWindow="62535" yWindow="60" windowWidth="17280" windowHeight="14340" activeTab="2" xr2:uid="{0F7F9569-DFE2-4DB2-B1A3-911991E7ED28}"/>
   </bookViews>
   <sheets>
     <sheet name="demand" sheetId="1" r:id="rId1"/>
     <sheet name="price" sheetId="2" r:id="rId2"/>
+    <sheet name="radiation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,6 +50,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>2-4 letter code that identifies the region</t>
         </r>
@@ -61,6 +63,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The end of the hour in Coordinated Universal Time (UTC ) </t>
         </r>
@@ -73,6 +76,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The date (using the specified local time zone) for which data has been reported</t>
         </r>
@@ -85,6 +89,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The hour number for the day.  Hour 1 corresponds to the time period 12:00 AM - 1:00 AM</t>
         </r>
@@ -97,6 +102,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Demand forecast (DF): Each BA produces a day-ahead electricity demand forecast for every hour of the next day. These forecasts help BAs plan for and coordinate the reliable operation of their electric system on the following day.  This column displays in MWh the sum of the demand forecasts of the BAs in the region.</t>
         </r>
@@ -109,6 +115,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Demand (D): A calculated value representing the amount of electricity load within the balancing authority’s electric system. A BA derives its demand value by taking the total metered net electricity generation within its electric system and subtracting the total metered net electricity interchange occurring between the BA and its neighboring BAs.  This column displays in MWh the sum of the demand of the BAs in the region.</t>
         </r>
@@ -121,6 +128,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The sum of net generation from individual energy sources in MWh</t>
         </r>
@@ -133,6 +141,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Net generation (NG) from coal (COL) reported by the BAs in the region in MWh.</t>
         </r>
@@ -145,6 +154,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Net generation (NG) from natural gas (NG) reported by the BAs in the region in MWh.</t>
         </r>
@@ -157,6 +167,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Net generation (NG) from nuclear energy (NUC) reported by the BAs in the region in MWh.</t>
         </r>
@@ -169,6 +180,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Net generation (NG) from petroleum products (OIL) reported by the BAs in the region in MWh.</t>
         </r>
@@ -181,6 +193,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Net generation (NG) from hydro and pumped storage (WAT) reported by the BAs in the region in MWh.</t>
         </r>
@@ -193,6 +206,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Net generation (NG) from solar energy (SUN) reported by the BAs in the region in MWh.</t>
         </r>
@@ -205,6 +219,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Net generation (NG) from wind (WND) reported by the BAs in the region in MWh.</t>
         </r>
@@ -217,6 +232,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Net generation (NG) from other energy sources (OTH) reported by the BAs in the region in MWh.</t>
         </r>
@@ -229,6 +245,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Net generation (NG) from unknown energy sources (UNK) reported by the BAs in the region in MWh.</t>
         </r>
@@ -241,6 +258,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The sum of interchange in MWh with all neighbors.</t>
         </r>
@@ -253,6 +271,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The sum of imports from all neighbors in MWh.</t>
         </r>
@@ -265,6 +284,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The sum of exports to all neighbors in MWh.</t>
         </r>
@@ -277,6 +297,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The interchange from SW to CAL in MWh.  (Reported by SW.)  Negative interchange values indicate net inflows into SW, and positive interchange values indicate net outflows from SW.</t>
         </r>
@@ -289,6 +310,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The interchange from SW to CAR in MWh.  (Reported by SW.)  Negative interchange values indicate net inflows into SW, and positive interchange values indicate net outflows from SW.</t>
         </r>
@@ -301,6 +323,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The interchange from SW to CENT in MWh.  (Reported by SW.)  Negative interchange values indicate net inflows into SW, and positive interchange values indicate net outflows from SW.</t>
         </r>
@@ -313,6 +336,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The interchange from SW to FLA in MWh.  (Reported by SW.)  Negative interchange values indicate net inflows into SW, and positive interchange values indicate net outflows from SW.</t>
         </r>
@@ -325,6 +349,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The interchange from SW to MIDA in MWh.  (Reported by SW.)  Negative interchange values indicate net inflows into SW, and positive interchange values indicate net outflows from SW.</t>
         </r>
@@ -337,6 +362,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The interchange from SW to MIDW in MWh.  (Reported by SW.)  Negative interchange values indicate net inflows into SW, and positive interchange values indicate net outflows from SW.</t>
         </r>
@@ -349,6 +375,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The interchange from SW to NE in MWh.  (Reported by SW.)  Negative interchange values indicate net inflows into SW, and positive interchange values indicate net outflows from SW.</t>
         </r>
@@ -361,6 +388,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The interchange from SW to NW in MWh.  (Reported by SW.)  Negative interchange values indicate net inflows into SW, and positive interchange values indicate net outflows from SW.</t>
         </r>
@@ -373,6 +401,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The interchange from SW to NY in MWh.  (Reported by SW.)  Negative interchange values indicate net inflows into SW, and positive interchange values indicate net outflows from SW.</t>
         </r>
@@ -385,6 +414,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The interchange from SW to SE in MWh.  (Reported by SW.)  Negative interchange values indicate net inflows into SW, and positive interchange values indicate net outflows from SW.</t>
         </r>
@@ -397,6 +427,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The interchange from SW to SW in MWh.  (Reported by SW.)  Negative interchange values indicate net inflows into SW, and positive interchange values indicate net outflows from SW.</t>
         </r>
@@ -409,6 +440,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The interchange from SW to TEN in MWh.  (Reported by SW.)  Negative interchange values indicate net inflows into SW, and positive interchange values indicate net outflows from SW.</t>
         </r>
@@ -421,6 +453,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The interchange from SW to TEX in MWh.  (Reported by SW.)  Negative interchange values indicate net inflows into SW, and positive interchange values indicate net outflows from SW.</t>
         </r>
@@ -433,6 +466,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The interchange from SW to CAN in MWh.  (Reported by SW.)  Negative interchange values indicate net inflows into SW, and positive interchange values indicate net outflows from SW.</t>
         </r>
@@ -445,6 +479,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The interchange from SW to MEX in MWh.  (Reported by SW.)  Negative interchange values indicate net inflows into SW, and positive interchange values indicate net outflows from SW.</t>
         </r>
@@ -457,6 +492,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>This column indicates when there is an imbalance between the net generation (NG), demand (D), and total interchange (TI).  Normally NG = D + TI.
 When there is an imbalance this column displays NG - (D + TI).  When the data balances this column displays 0.</t>
@@ -470,6 +506,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>This column indicates when there is an imbalance between the total interchange (TI) and the sum of interchange with all neighbors.
 When there is an imbalance this column displays TI - Sum (Trade).  When the data balances this column displays 0.</t>
@@ -483,6 +520,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>This column indicates when there is an imbalance between the total net generation (NG) and the sum of net generation from individual energy sources
 When there is an imbalance this column displays (total net generation) - Sum (net generation by energy source).  When the data balances this column displays 0.</t>
@@ -496,6 +534,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Selected CO2 emissions factor for coal (lbs/kWh).   Selection method described in EIA's FAQ: https://www.eia.gov/tools/faqs/faq.php?id=74&amp;t=11.  For balancing authorities having insufficient historical data, a U.S. factor is used.  Regional factors are a weighted aveage of selected BA factors.</t>
         </r>
@@ -508,6 +547,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Selected CO2 emissions factor for natural gas (lbs/kWh).   Selection method described in EIA's FAQ: https://www.eia.gov/tools/faqs/faq.php?id=74&amp;t=11.  For balancing authorities having insufficient historical data, a U.S. factor is used.  Regional factors are a weighted aveage of selected BA factors.</t>
         </r>
@@ -520,6 +560,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Selected CO2 emissions factor for petroleum (lbs/kWh).   Selection method described in EIA's FAQ: https://www.eia.gov/tools/faqs/faq.php?id=74&amp;t=11.  For balancing authorities having insufficient historical data, a U.S. factor is used.  Regional factors are a weighted aveage of selected BA factors.</t>
         </r>
@@ -532,6 +573,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The sum of reported generation (MWh) from coal from BA's having non-negative generation.  (CO2 Emissions are not calculated for negative generation values)
 </t>
@@ -545,6 +587,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The sum of reported generation (MWh) from natural gas from BA's having non-negative generation.  (CO2 Emissions are not calculated for negative generation values)
 </t>
@@ -558,6 +601,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The sum of reported generation (MWh) from petroleum from BA's having non-negative generation.  (CO2 Emissions are not calculated for negative generation values)
 </t>
@@ -571,6 +615,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>CO2 emissions from coal (metric tons)</t>
         </r>
@@ -583,6 +628,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>CO2 emissions from natual gas (metric tons)</t>
         </r>
@@ -595,6 +641,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>CO2 emissions from petroleum (metric tons)</t>
         </r>
@@ -607,6 +654,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>CO2 emissions from sources other than coal, natural gas, and petroleum (metric tons)</t>
         </r>
@@ -619,6 +667,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>CO2 emissions generated from all sources (metric tons)</t>
         </r>
@@ -631,6 +680,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>CO2 emissions imported (metric tons)</t>
         </r>
@@ -643,6 +693,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>CO2 emissions exported (metric tons)</t>
         </r>
@@ -655,6 +706,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>CO2 emissions consumed by balacning authority (metric tons)</t>
         </r>
@@ -667,6 +719,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The sum of reported generation (MWh) by energy source for energy sources having non-negative generation.
 </t>
@@ -680,6 +733,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Consumed electricity (MWh) is calculated as the sum of reported generation by energy source plus the sum of imports from neighboring balancing authorities minus the sum of exports to neighboring balancing authorities. </t>
         </r>
@@ -692,6 +746,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>CO2 emissions intensity for total generation (lbs/kWh)</t>
         </r>
@@ -704,6 +759,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>CO2 emissions intensity for total consumption (lbs/kWh)</t>
         </r>
@@ -726,6 +782,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>The hour number for the day.  Hour 1 corresponds to the time period 12:00 AM - 1:00 AM</t>
         </r>
@@ -736,7 +793,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="10">
   <si>
     <t>SW</t>
   </si>
@@ -761,6 +818,12 @@
   <si>
     <t>Marginal Price</t>
   </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>July (rescaled)</t>
+  </si>
 </sst>
 </file>
 
@@ -770,7 +833,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]ddmmmyyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="[$-409]ddmmmyyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,6 +877,12 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -840,7 +909,6 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -875,6 +943,9 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2635,7 +2706,7 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83</c:v>
+                  <c:v>85.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>84</c:v>
@@ -2968,6 +3039,340 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>radiation!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>July (rescaled)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>radiation!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.22E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6892000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22913900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.414109</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59119500000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71903899999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.805176</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85775100000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85792500000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.73205200000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62811899999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.53499699999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.34695500000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.172072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4778999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D23F-48B5-8743-B1C717E4DB4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1285351887"/>
+        <c:axId val="1290867999"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1285351887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1290867999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1290867999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1285351887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3009,6 +3414,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4080,6 +4525,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4142,6 +5103,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA09E51-DAFC-D42D-5937-CB777954F3FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>226695</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0996B48F-67DD-4793-C270-72604A58D4E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4465,4615 +5467,4614 @@
       <selection activeCell="D1" sqref="D1:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="1"/>
     <col min="2" max="2" width="17.62890625" customWidth="1"/>
     <col min="3" max="3" width="13.05078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:55" s="7" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="16"/>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="15"/>
+    </row>
+    <row r="2" spans="1:55">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>45078.333333333336</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>45078</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>11003</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>10893</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="5"/>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="4"/>
+    </row>
+    <row r="3" spans="1:55">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>45078.375</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>45078</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>10446</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>10337</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="6"/>
-      <c r="AY3" s="6"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="7"/>
-      <c r="BC3" s="5"/>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="4"/>
+    </row>
+    <row r="4" spans="1:55">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>45078.416666666664</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>45078</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>10162</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>10003</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="7"/>
-      <c r="BC4" s="5"/>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="4"/>
+    </row>
+    <row r="5" spans="1:55">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>45078.458333333336</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>45078</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>9988</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>9865</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="6"/>
-      <c r="AS5" s="6"/>
-      <c r="AT5" s="6"/>
-      <c r="AU5" s="6"/>
-      <c r="AV5" s="6"/>
-      <c r="AW5" s="6"/>
-      <c r="AX5" s="6"/>
-      <c r="AY5" s="6"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="7"/>
-      <c r="BC5" s="5"/>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="4"/>
+    </row>
+    <row r="6" spans="1:55">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>45078.5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>45078</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>10154</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>9987</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="6"/>
-      <c r="AT6" s="6"/>
-      <c r="AU6" s="6"/>
-      <c r="AV6" s="6"/>
-      <c r="AW6" s="6"/>
-      <c r="AX6" s="6"/>
-      <c r="AY6" s="6"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="7"/>
-      <c r="BC6" s="5"/>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="4"/>
+    </row>
+    <row r="7" spans="1:55">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>45078.541666666664</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>45078</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>10397</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>10268</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="7"/>
-      <c r="BC7" s="5"/>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="4"/>
+    </row>
+    <row r="8" spans="1:55">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>45078.583333333336</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>45078</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>10560</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>10396</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="7"/>
-      <c r="BC8" s="5"/>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="4"/>
+    </row>
+    <row r="9" spans="1:55">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>45078.625</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>45078</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>10760</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>10576</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="6"/>
-      <c r="AS9" s="6"/>
-      <c r="AT9" s="6"/>
-      <c r="AU9" s="6"/>
-      <c r="AV9" s="6"/>
-      <c r="AW9" s="6"/>
-      <c r="AX9" s="6"/>
-      <c r="AY9" s="6"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="4"/>
-      <c r="BB9" s="7"/>
-      <c r="BC9" s="5"/>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="5"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="4"/>
+    </row>
+    <row r="10" spans="1:55">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>45078.666666666664</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>45078</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>10945</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>10895</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="6"/>
-      <c r="AS10" s="6"/>
-      <c r="AT10" s="6"/>
-      <c r="AU10" s="6"/>
-      <c r="AV10" s="6"/>
-      <c r="AW10" s="6"/>
-      <c r="AX10" s="6"/>
-      <c r="AY10" s="6"/>
-      <c r="AZ10" s="4"/>
-      <c r="BA10" s="4"/>
-      <c r="BB10" s="7"/>
-      <c r="BC10" s="5"/>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="5"/>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="4"/>
+    </row>
+    <row r="11" spans="1:55">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>45078.708333333336</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>45078</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>11244</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>11113</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="6"/>
-      <c r="AS11" s="6"/>
-      <c r="AT11" s="6"/>
-      <c r="AU11" s="6"/>
-      <c r="AV11" s="6"/>
-      <c r="AW11" s="6"/>
-      <c r="AX11" s="6"/>
-      <c r="AY11" s="6"/>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="4"/>
-      <c r="BB11" s="7"/>
-      <c r="BC11" s="5"/>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="4"/>
+    </row>
+    <row r="12" spans="1:55">
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>45078.75</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>45078</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>11646</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>11619</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
-      <c r="AT12" s="6"/>
-      <c r="AU12" s="6"/>
-      <c r="AV12" s="6"/>
-      <c r="AW12" s="6"/>
-      <c r="AX12" s="6"/>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="7"/>
-      <c r="BC12" s="5"/>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="4"/>
+    </row>
+    <row r="13" spans="1:55">
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>45078.791666666664</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>45078</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>12162</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>12165</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="6"/>
-      <c r="AV13" s="6"/>
-      <c r="AW13" s="6"/>
-      <c r="AX13" s="6"/>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="4"/>
-      <c r="BB13" s="7"/>
-      <c r="BC13" s="5"/>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="4"/>
+    </row>
+    <row r="14" spans="1:55">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>45078.833333333336</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>45078</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>12859</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>12753</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="6"/>
-      <c r="AV14" s="6"/>
-      <c r="AW14" s="6"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="4"/>
-      <c r="BB14" s="7"/>
-      <c r="BC14" s="5"/>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="4"/>
+    </row>
+    <row r="15" spans="1:55">
       <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>45078.875</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>45078</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>13561</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>13487</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="6"/>
-      <c r="AS15" s="6"/>
-      <c r="AT15" s="6"/>
-      <c r="AU15" s="6"/>
-      <c r="AV15" s="6"/>
-      <c r="AW15" s="6"/>
-      <c r="AX15" s="6"/>
-      <c r="AY15" s="6"/>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="4"/>
-      <c r="BB15" s="7"/>
-      <c r="BC15" s="5"/>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="4"/>
+    </row>
+    <row r="16" spans="1:55">
       <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>45078.916666666664</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>45078</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>14254</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>14042</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="6"/>
-      <c r="AS16" s="6"/>
-      <c r="AT16" s="6"/>
-      <c r="AU16" s="6"/>
-      <c r="AV16" s="6"/>
-      <c r="AW16" s="6"/>
-      <c r="AX16" s="6"/>
-      <c r="AY16" s="6"/>
-      <c r="AZ16" s="4"/>
-      <c r="BA16" s="4"/>
-      <c r="BB16" s="7"/>
-      <c r="BC16" s="5"/>
-    </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="5"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="5"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="6"/>
+      <c r="BC16" s="4"/>
+    </row>
+    <row r="17" spans="1:55">
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>45078.958333333336</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>45078</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>14837</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>14731</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="6"/>
-      <c r="AT17" s="6"/>
-      <c r="AU17" s="6"/>
-      <c r="AV17" s="6"/>
-      <c r="AW17" s="6"/>
-      <c r="AX17" s="6"/>
-      <c r="AY17" s="6"/>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="4"/>
-      <c r="BB17" s="7"/>
-      <c r="BC17" s="5"/>
-    </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="5"/>
+      <c r="AY17" s="5"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="4"/>
+    </row>
+    <row r="18" spans="1:55">
       <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>45079</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>45078</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>15201</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>15316</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="6"/>
-      <c r="AV18" s="6"/>
-      <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="7"/>
-      <c r="BC18" s="5"/>
-    </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="5"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="4"/>
+    </row>
+    <row r="19" spans="1:55">
       <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>45079.041666666664</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>45078</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>15477</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>15574</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
-      <c r="AT19" s="6"/>
-      <c r="AU19" s="6"/>
-      <c r="AV19" s="6"/>
-      <c r="AW19" s="6"/>
-      <c r="AX19" s="6"/>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="7"/>
-      <c r="BC19" s="5"/>
-    </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="5"/>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="6"/>
+      <c r="BC19" s="4"/>
+    </row>
+    <row r="20" spans="1:55">
       <c r="A20" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>45079.083333333336</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>45078</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>15364</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>15408</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="6"/>
-      <c r="AT20" s="6"/>
-      <c r="AU20" s="6"/>
-      <c r="AV20" s="6"/>
-      <c r="AW20" s="6"/>
-      <c r="AX20" s="6"/>
-      <c r="AY20" s="6"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
-      <c r="BB20" s="7"/>
-      <c r="BC20" s="5"/>
-    </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="5"/>
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="5"/>
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="6"/>
+      <c r="BC20" s="4"/>
+    </row>
+    <row r="21" spans="1:55">
       <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>45079.125</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>45078</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>14991</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>15096</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="6"/>
-      <c r="AS21" s="6"/>
-      <c r="AT21" s="6"/>
-      <c r="AU21" s="6"/>
-      <c r="AV21" s="6"/>
-      <c r="AW21" s="6"/>
-      <c r="AX21" s="6"/>
-      <c r="AY21" s="6"/>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="4"/>
-      <c r="BB21" s="7"/>
-      <c r="BC21" s="5"/>
-    </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5"/>
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="5"/>
+      <c r="AX21" s="5"/>
+      <c r="AY21" s="5"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="6"/>
+      <c r="BC21" s="4"/>
+    </row>
+    <row r="22" spans="1:55">
       <c r="A22" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>45079.166666666664</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>45078</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>14457</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>14635</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
-      <c r="AT22" s="6"/>
-      <c r="AU22" s="6"/>
-      <c r="AV22" s="6"/>
-      <c r="AW22" s="6"/>
-      <c r="AX22" s="6"/>
-      <c r="AY22" s="6"/>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="4"/>
-      <c r="BB22" s="7"/>
-      <c r="BC22" s="5"/>
-    </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="6"/>
+      <c r="BC22" s="4"/>
+    </row>
+    <row r="23" spans="1:55">
       <c r="A23" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>45079.208333333336</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>45078</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>13508</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>13787</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="6"/>
-      <c r="AS23" s="6"/>
-      <c r="AT23" s="6"/>
-      <c r="AU23" s="6"/>
-      <c r="AV23" s="6"/>
-      <c r="AW23" s="6"/>
-      <c r="AX23" s="6"/>
-      <c r="AY23" s="6"/>
-      <c r="AZ23" s="4"/>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="7"/>
-      <c r="BC23" s="5"/>
-    </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="6"/>
+      <c r="BC23" s="4"/>
+    </row>
+    <row r="24" spans="1:55">
       <c r="A24" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>45079.25</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>45078</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>12642</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>13646</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="6"/>
-      <c r="AS24" s="6"/>
-      <c r="AT24" s="6"/>
-      <c r="AU24" s="6"/>
-      <c r="AV24" s="6"/>
-      <c r="AW24" s="6"/>
-      <c r="AX24" s="6"/>
-      <c r="AY24" s="6"/>
-      <c r="AZ24" s="4"/>
-      <c r="BA24" s="4"/>
-      <c r="BB24" s="7"/>
-      <c r="BC24" s="5"/>
-    </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="6"/>
+      <c r="BC24" s="4"/>
+    </row>
+    <row r="25" spans="1:55">
       <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>45079.291666666664</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>45078</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>11639</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>11967</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
-      <c r="AI25" s="4"/>
-      <c r="AJ25" s="4"/>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="4"/>
-      <c r="AP25" s="4"/>
-      <c r="AQ25" s="4"/>
-      <c r="AR25" s="6"/>
-      <c r="AS25" s="6"/>
-      <c r="AT25" s="6"/>
-      <c r="AU25" s="6"/>
-      <c r="AV25" s="6"/>
-      <c r="AW25" s="6"/>
-      <c r="AX25" s="6"/>
-      <c r="AY25" s="6"/>
-      <c r="AZ25" s="4"/>
-      <c r="BA25" s="4"/>
-      <c r="BB25" s="7"/>
-      <c r="BC25" s="5"/>
-    </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="5"/>
+      <c r="AU25" s="5"/>
+      <c r="AV25" s="5"/>
+      <c r="AW25" s="5"/>
+      <c r="AX25" s="5"/>
+      <c r="AY25" s="5"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="6"/>
+      <c r="BC25" s="4"/>
+    </row>
+    <row r="26" spans="1:55">
       <c r="A26" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>45079.333333333336</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>45079</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>11251</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>11314</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:55">
       <c r="A27" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>45079.375</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>45079</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>10772</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>10787</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:55">
       <c r="A28" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>45079.416666666664</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>45079</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>10376</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>10329</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:55">
       <c r="A29" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>45079.458333333336</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>45079</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>10211</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>10186</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:55">
       <c r="A30" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>45079.5</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>45079</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>10379</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>10223</v>
       </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:55">
       <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>45079.541666666664</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>45079</v>
       </c>
       <c r="D31">
         <v>6</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>10545</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>10390</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:55">
       <c r="A32" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>45079.583333333336</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>45079</v>
       </c>
       <c r="D32">
         <v>7</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>10696</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>10520</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>45079.625</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>45079</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>10905</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>10765</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>45079.666666666664</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>45079</v>
       </c>
       <c r="D34">
         <v>9</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>11194</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>11228</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>45079.708333333336</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>45079</v>
       </c>
       <c r="D35">
         <v>10</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>11543</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>11577</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>45079.75</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>45079</v>
       </c>
       <c r="D36">
         <v>11</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>12027</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>12224</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>45079.791666666664</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>45079</v>
       </c>
       <c r="D37">
         <v>12</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>12678</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>12878</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>45079.833333333336</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>45079</v>
       </c>
       <c r="D38">
         <v>13</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>13342</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>13551</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>45079.875</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>45079</v>
       </c>
       <c r="D39">
         <v>14</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>14115</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>14228</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>45079.916666666664</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>45079</v>
       </c>
       <c r="D40">
         <v>15</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>14851</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>14911</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>45079.958333333336</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>45079</v>
       </c>
       <c r="D41">
         <v>16</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>15440</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>15201</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>45080</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>45079</v>
       </c>
       <c r="D42">
         <v>17</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>15805</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <v>15665</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>45080.041666666664</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>45079</v>
       </c>
       <c r="D43">
         <v>18</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>15998</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>16099</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>45080.083333333336</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>45079</v>
       </c>
       <c r="D44">
         <v>19</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>15730</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <v>15898</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>45080.125</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>45079</v>
       </c>
       <c r="D45">
         <v>20</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>15226</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <v>15240</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>45080.166666666664</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>45079</v>
       </c>
       <c r="D46">
         <v>21</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>14620</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <v>14705</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>45080.208333333336</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>45079</v>
       </c>
       <c r="D47">
         <v>22</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>13711</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <v>13726</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>45080.25</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>45079</v>
       </c>
       <c r="D48">
         <v>23</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>12939</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <v>12943</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>45080.291666666664</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>45079</v>
       </c>
       <c r="D49">
         <v>24</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>12037</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <v>12014</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>45080.333333333336</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>45080</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>11368</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>11289</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>45080.375</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>45080</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>10763</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="3">
         <v>10641</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>45080.416666666664</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>45080</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>10428</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <v>10202</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>45080.458333333336</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>45080</v>
       </c>
       <c r="D53">
         <v>4</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <v>10158</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="3">
         <v>9895</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>45080.5</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>45080</v>
       </c>
       <c r="D54">
         <v>5</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <v>10076</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="3">
         <v>9780</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>45080.541666666664</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>45080</v>
       </c>
       <c r="D55">
         <v>6</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <v>9943</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="3">
         <v>9659</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>45080.583333333336</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>45080</v>
       </c>
       <c r="D56">
         <v>7</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <v>9888</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="3">
         <v>9571</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>45080.625</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>45080</v>
       </c>
       <c r="D57">
         <v>8</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="3">
         <v>10180</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="3">
         <v>9821</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>45080.666666666664</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>45080</v>
       </c>
       <c r="D58">
         <v>9</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <v>10808</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="3">
         <v>10654</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>45080.708333333336</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>45080</v>
       </c>
       <c r="D59">
         <v>10</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="3">
         <v>11475</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="3">
         <v>11385</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>45080.75</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <v>45080</v>
       </c>
       <c r="D60">
         <v>11</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <v>12279</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="3">
         <v>12169</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>45080.791666666664</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <v>45080</v>
       </c>
       <c r="D61">
         <v>12</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="3">
         <v>13154</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="3">
         <v>13019</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>45080.833333333336</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <v>45080</v>
       </c>
       <c r="D62">
         <v>13</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="3">
         <v>14079</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="3">
         <v>13723</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>45080.875</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <v>45080</v>
       </c>
       <c r="D63">
         <v>14</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>15007</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="3">
         <v>14813</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>45080.916666666664</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <v>45080</v>
       </c>
       <c r="D64">
         <v>15</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <v>15894</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="3">
         <v>15512</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>45080.958333333336</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="2">
         <v>45080</v>
       </c>
       <c r="D65">
         <v>16</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="3">
         <v>16711</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="3">
         <v>15998</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>45081</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <v>45080</v>
       </c>
       <c r="D66">
         <v>17</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="3">
         <v>17091</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="3">
         <v>16603</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>45081.041666666664</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="2">
         <v>45080</v>
       </c>
       <c r="D67">
         <v>18</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="3">
         <v>17224</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="3">
         <v>17072</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>45081.083333333336</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="2">
         <v>45080</v>
       </c>
       <c r="D68">
         <v>19</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="3">
         <v>16755</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="3">
         <v>16824</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>45081.125</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="2">
         <v>45080</v>
       </c>
       <c r="D69">
         <v>20</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="3">
         <v>15979</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="3">
         <v>16052</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>45081.166666666664</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
         <v>45080</v>
       </c>
       <c r="D70">
         <v>21</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <v>15195</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="3">
         <v>15293</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>45081.208333333336</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="2">
         <v>45080</v>
       </c>
       <c r="D71">
         <v>22</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="3">
         <v>14214</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="3">
         <v>14271</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>45081.25</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="2">
         <v>45080</v>
       </c>
       <c r="D72">
         <v>23</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="3">
         <v>13327</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="3">
         <v>13347</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>45081.291666666664</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="2">
         <v>45080</v>
       </c>
       <c r="D73">
         <v>24</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="3">
         <v>12403</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="3">
         <v>14024</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>45081.333333333336</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="2">
         <v>45081</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="3">
         <v>11769</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="3">
         <v>11675</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>45081.375</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="2">
         <v>45081</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="3">
         <v>11114</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="3">
         <v>11033</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>45081.416666666664</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="2">
         <v>45081</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="3">
         <v>10635</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="3">
         <v>10494</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>45081.458333333336</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="2">
         <v>45081</v>
       </c>
       <c r="D77">
         <v>4</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="3">
         <v>10353</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="3">
         <v>10149</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>45081.5</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="2">
         <v>45081</v>
       </c>
       <c r="D78">
         <v>5</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="3">
         <v>10206</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="3">
         <v>9948</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>45081.541666666664</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="2">
         <v>45081</v>
       </c>
       <c r="D79">
         <v>6</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="3">
         <v>9962</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="3">
         <v>9723</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <v>45081.583333333336</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="2">
         <v>45081</v>
       </c>
       <c r="D80">
         <v>7</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="3">
         <v>10039</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="3">
         <v>9776</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>45081.625</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="2">
         <v>45081</v>
       </c>
       <c r="D81">
         <v>8</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="3">
         <v>10458</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="3">
         <v>10097</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>45081.666666666664</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="2">
         <v>45081</v>
       </c>
       <c r="D82">
         <v>9</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="3">
         <v>10957</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="3">
         <v>10723</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>45081.708333333336</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="2">
         <v>45081</v>
       </c>
       <c r="D83">
         <v>10</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="3">
         <v>11747</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="3">
         <v>11540</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>45081.75</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="2">
         <v>45081</v>
       </c>
       <c r="D84">
         <v>11</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="3">
         <v>12659</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="3">
         <v>12493</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>45081.791666666664</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="2">
         <v>45081</v>
       </c>
       <c r="D85">
         <v>12</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="3">
         <v>13673</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="3">
         <v>13571</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>45081.833333333336</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="2">
         <v>45081</v>
       </c>
       <c r="D86">
         <v>13</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="3">
         <v>14758</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="3">
         <v>14704</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>45081.875</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="2">
         <v>45081</v>
       </c>
       <c r="D87">
         <v>14</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="3">
         <v>15625</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="3">
         <v>15642</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>45081.916666666664</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="2">
         <v>45081</v>
       </c>
       <c r="D88">
         <v>15</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="3">
         <v>16476</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="3">
         <v>16505</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>45081.958333333336</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="2">
         <v>45081</v>
       </c>
       <c r="D89">
         <v>16</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="3">
         <v>17458</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="3">
         <v>17299</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>45082</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="2">
         <v>45081</v>
       </c>
       <c r="D90">
         <v>17</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="3">
         <v>18099</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="3">
         <v>17824</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>45082.041666666664</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="2">
         <v>45081</v>
       </c>
       <c r="D91">
         <v>18</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="3">
         <v>18090</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="3">
         <v>18245</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>45082.083333333336</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="2">
         <v>45081</v>
       </c>
       <c r="D92">
         <v>19</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="3">
         <v>17644</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92" s="3">
         <v>17967</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>45082.125</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="2">
         <v>45081</v>
       </c>
       <c r="D93">
         <v>20</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="3">
         <v>16981</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F93" s="3">
         <v>17058</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>45082.166666666664</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="2">
         <v>45081</v>
       </c>
       <c r="D94">
         <v>21</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="3">
         <v>16129</v>
       </c>
-      <c r="F94" s="4">
+      <c r="F94" s="3">
         <v>16159</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>0</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="1">
         <v>45082.208333333336</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="2">
         <v>45081</v>
       </c>
       <c r="D95">
         <v>22</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="3">
         <v>15042</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F95" s="3">
         <v>15018</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <v>45082.25</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="2">
         <v>45081</v>
       </c>
       <c r="D96">
         <v>23</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="3">
         <v>13848</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96" s="3">
         <v>13718</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>45082.291666666664</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="2">
         <v>45081</v>
       </c>
       <c r="D97">
         <v>24</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="3">
         <v>12713</v>
       </c>
-      <c r="F97" s="4">
+      <c r="F97" s="3">
         <v>12517</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>45082.333333333336</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="2">
         <v>45082</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="3">
         <v>11963</v>
       </c>
-      <c r="F98" s="4">
+      <c r="F98" s="3">
         <v>13578</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>45082.375</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="2">
         <v>45082</v>
       </c>
       <c r="D99">
         <v>2</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="3">
         <v>11323</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99" s="3">
         <v>11215</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <v>45082.416666666664</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="2">
         <v>45082</v>
       </c>
       <c r="D100">
         <v>3</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="3">
         <v>10900</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F100" s="3">
         <v>10684</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="1">
         <v>45082.458333333336</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="2">
         <v>45082</v>
       </c>
       <c r="D101">
         <v>4</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="3">
         <v>10721</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101" s="3">
         <v>10393</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <v>45082.5</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="2">
         <v>45082</v>
       </c>
       <c r="D102">
         <v>5</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="3">
         <v>10769</v>
       </c>
-      <c r="F102" s="4">
+      <c r="F102" s="3">
         <v>10415</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="1">
         <v>45082.541666666664</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="2">
         <v>45082</v>
       </c>
       <c r="D103">
         <v>6</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="3">
         <v>10894</v>
       </c>
-      <c r="F103" s="4">
+      <c r="F103" s="3">
         <v>10636</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="1">
         <v>45082.583333333336</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="2">
         <v>45082</v>
       </c>
       <c r="D104">
         <v>7</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="3">
         <v>11336</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F104" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="1">
         <v>45082.625</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="2">
         <v>45082</v>
       </c>
       <c r="D105">
         <v>8</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="3">
         <v>11770</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105" s="3">
         <v>11446</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="1">
         <v>45082.666666666664</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="2">
         <v>45082</v>
       </c>
       <c r="D106">
         <v>9</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="3">
         <v>12137</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F106" s="3">
         <v>12145</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="1">
         <v>45082.708333333336</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="2">
         <v>45082</v>
       </c>
       <c r="D107">
         <v>10</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="3">
         <v>12802</v>
       </c>
-      <c r="F107" s="4">
+      <c r="F107" s="3">
         <v>12657</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>0</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="1">
         <v>45082.75</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="2">
         <v>45082</v>
       </c>
       <c r="D108">
         <v>11</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E108" s="3">
         <v>13634</v>
       </c>
-      <c r="F108" s="4">
+      <c r="F108" s="3">
         <v>13538</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>0</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="1">
         <v>45082.791666666664</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="2">
         <v>45082</v>
       </c>
       <c r="D109">
         <v>12</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109" s="3">
         <v>14617</v>
       </c>
-      <c r="F109" s="4">
+      <c r="F109" s="3">
         <v>14443</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="1">
         <v>45082.833333333336</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="2">
         <v>45082</v>
       </c>
       <c r="D110">
         <v>13</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110" s="3">
         <v>15694</v>
       </c>
-      <c r="F110" s="4">
+      <c r="F110" s="3">
         <v>15454</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="1">
         <v>45082.875</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="2">
         <v>45082</v>
       </c>
       <c r="D111">
         <v>14</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="3">
         <v>16657</v>
       </c>
-      <c r="F111" s="4">
+      <c r="F111" s="3">
         <v>16306</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="1">
         <v>45082.916666666664</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="2">
         <v>45082</v>
       </c>
       <c r="D112">
         <v>15</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="3">
         <v>17581</v>
       </c>
-      <c r="F112" s="4">
+      <c r="F112" s="3">
         <v>17299</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="1">
         <v>45082.958333333336</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="2">
         <v>45082</v>
       </c>
       <c r="D113">
         <v>16</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113" s="3">
         <v>18225</v>
       </c>
-      <c r="F113" s="4">
+      <c r="F113" s="3">
         <v>17791</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="1">
         <v>45083</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="2">
         <v>45082</v>
       </c>
       <c r="D114">
         <v>17</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="3">
         <v>18597</v>
       </c>
-      <c r="F114" s="4">
+      <c r="F114" s="3">
         <v>18221</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="1">
         <v>45083.041666666664</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="2">
         <v>45082</v>
       </c>
       <c r="D115">
         <v>18</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="3">
         <v>18650</v>
       </c>
-      <c r="F115" s="4">
+      <c r="F115" s="3">
         <v>18378</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>0</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="1">
         <v>45083.083333333336</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="2">
         <v>45082</v>
       </c>
       <c r="D116">
         <v>19</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="3">
         <v>18118</v>
       </c>
-      <c r="F116" s="4">
+      <c r="F116" s="3">
         <v>17771</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>0</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="1">
         <v>45083.125</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="2">
         <v>45082</v>
       </c>
       <c r="D117">
         <v>20</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="3">
         <v>17236</v>
       </c>
-      <c r="F117" s="4">
+      <c r="F117" s="3">
         <v>16990</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="1">
         <v>45083.166666666664</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="2">
         <v>45082</v>
       </c>
       <c r="D118">
         <v>21</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="3">
         <v>16344</v>
       </c>
-      <c r="F118" s="4">
+      <c r="F118" s="3">
         <v>16212</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="1">
         <v>45083.208333333336</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="2">
         <v>45082</v>
       </c>
       <c r="D119">
         <v>22</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="3">
         <v>15090</v>
       </c>
-      <c r="F119" s="4">
+      <c r="F119" s="3">
         <v>14939</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>0</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="1">
         <v>45083.25</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="2">
         <v>45082</v>
       </c>
       <c r="D120">
         <v>23</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E120" s="3">
         <v>13861</v>
       </c>
-      <c r="F120" s="4">
+      <c r="F120" s="3">
         <v>15236</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>0</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="1">
         <v>45083.291666666664</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="2">
         <v>45082</v>
       </c>
       <c r="D121">
         <v>24</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121" s="3">
         <v>12634</v>
       </c>
-      <c r="F121" s="4">
+      <c r="F121" s="3">
         <v>12610</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="1">
         <v>45083.333333333336</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="2">
         <v>45083</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122" s="3">
         <v>11762</v>
       </c>
-      <c r="F122" s="4">
+      <c r="F122" s="3">
         <v>11587</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>0</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="1">
         <v>45083.375</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="2">
         <v>45083</v>
       </c>
       <c r="D123">
         <v>2</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123" s="3">
         <v>11091</v>
       </c>
-      <c r="F123" s="4">
+      <c r="F123" s="3">
         <v>10860</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>0</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="1">
         <v>45083.416666666664</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="2">
         <v>45083</v>
       </c>
       <c r="D124">
         <v>3</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E124" s="3">
         <v>10593</v>
       </c>
-      <c r="F124" s="4">
+      <c r="F124" s="3">
         <v>10412</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>0</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="1">
         <v>45083.458333333336</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="2">
         <v>45083</v>
       </c>
       <c r="D125">
         <v>4</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="3">
         <v>10399</v>
       </c>
-      <c r="F125" s="4">
+      <c r="F125" s="3">
         <v>10147</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>0</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="1">
         <v>45083.5</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="2">
         <v>45083</v>
       </c>
       <c r="D126">
         <v>5</v>
       </c>
-      <c r="E126" s="4">
+      <c r="E126" s="3">
         <v>10470</v>
       </c>
-      <c r="F126" s="4">
+      <c r="F126" s="3">
         <v>10199</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>0</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="1">
         <v>45083.541666666664</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="2">
         <v>45083</v>
       </c>
       <c r="D127">
         <v>6</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E127" s="3">
         <v>10637</v>
       </c>
-      <c r="F127" s="4">
+      <c r="F127" s="3">
         <v>10371</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>0</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="1">
         <v>45083.583333333336</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="2">
         <v>45083</v>
       </c>
       <c r="D128">
         <v>7</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E128" s="3">
         <v>11047</v>
       </c>
-      <c r="F128" s="4">
+      <c r="F128" s="3">
         <v>10581</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>0</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="1">
         <v>45083.625</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="2">
         <v>45083</v>
       </c>
       <c r="D129">
         <v>8</v>
       </c>
-      <c r="E129" s="4">
+      <c r="E129" s="3">
         <v>11433</v>
       </c>
-      <c r="F129" s="4">
+      <c r="F129" s="3">
         <v>10932</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>0</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="1">
         <v>45083.666666666664</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="2">
         <v>45083</v>
       </c>
       <c r="D130">
         <v>9</v>
       </c>
-      <c r="E130" s="4">
+      <c r="E130" s="3">
         <v>11820</v>
       </c>
-      <c r="F130" s="4">
+      <c r="F130" s="3">
         <v>11483</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="1">
         <v>45083.708333333336</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="2">
         <v>45083</v>
       </c>
       <c r="D131">
         <v>10</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E131" s="3">
         <v>12436</v>
       </c>
-      <c r="F131" s="4">
+      <c r="F131" s="3">
         <v>12052</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>0</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="1">
         <v>45083.75</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="2">
         <v>45083</v>
       </c>
       <c r="D132">
         <v>11</v>
       </c>
-      <c r="E132" s="4">
+      <c r="E132" s="3">
         <v>13053</v>
       </c>
-      <c r="F132" s="4">
+      <c r="F132" s="3">
         <v>12766</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>0</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="1">
         <v>45083.791666666664</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="2">
         <v>45083</v>
       </c>
       <c r="D133">
         <v>12</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E133" s="3">
         <v>13915</v>
       </c>
-      <c r="F133" s="4">
+      <c r="F133" s="3">
         <v>13568</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="1">
         <v>45083.833333333336</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="2">
         <v>45083</v>
       </c>
       <c r="D134">
         <v>13</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E134" s="3">
         <v>14708</v>
       </c>
-      <c r="F134" s="4">
+      <c r="F134" s="3">
         <v>14444</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="1">
         <v>45083.875</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="2">
         <v>45083</v>
       </c>
       <c r="D135">
         <v>14</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E135" s="3">
         <v>15467</v>
       </c>
-      <c r="F135" s="4">
+      <c r="F135" s="3">
         <v>15097</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>0</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="1">
         <v>45083.916666666664</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="2">
         <v>45083</v>
       </c>
       <c r="D136">
         <v>15</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E136" s="3">
         <v>16263</v>
       </c>
-      <c r="F136" s="4">
+      <c r="F136" s="3">
         <v>15829</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>0</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="1">
         <v>45083.958333333336</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="2">
         <v>45083</v>
       </c>
       <c r="D137">
         <v>16</v>
       </c>
-      <c r="E137" s="4">
+      <c r="E137" s="3">
         <v>16926</v>
       </c>
-      <c r="F137" s="4">
+      <c r="F137" s="3">
         <v>16189</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>0</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="1">
         <v>45084</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="2">
         <v>45083</v>
       </c>
       <c r="D138">
         <v>17</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E138" s="3">
         <v>17056</v>
       </c>
-      <c r="F138" s="4">
+      <c r="F138" s="3">
         <v>16514</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="1">
         <v>45084.041666666664</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="2">
         <v>45083</v>
       </c>
       <c r="D139">
         <v>18</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139" s="3">
         <v>17130</v>
       </c>
-      <c r="F139" s="4">
+      <c r="F139" s="3">
         <v>16504</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="1">
         <v>45084.083333333336</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="2">
         <v>45083</v>
       </c>
       <c r="D140">
         <v>19</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E140" s="3">
         <v>16503</v>
       </c>
-      <c r="F140" s="4">
+      <c r="F140" s="3">
         <v>16236</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="1">
         <v>45084.125</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="2">
         <v>45083</v>
       </c>
       <c r="D141">
         <v>20</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E141" s="3">
         <v>15888</v>
       </c>
-      <c r="F141" s="4">
+      <c r="F141" s="3">
         <v>15569</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="1">
         <v>45084.166666666664</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="2">
         <v>45083</v>
       </c>
       <c r="D142">
         <v>21</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E142" s="3">
         <v>15262</v>
       </c>
-      <c r="F142" s="4">
+      <c r="F142" s="3">
         <v>14993</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>0</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="1">
         <v>45084.208333333336</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="2">
         <v>45083</v>
       </c>
       <c r="D143">
         <v>22</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E143" s="3">
         <v>14118</v>
       </c>
-      <c r="F143" s="4">
+      <c r="F143" s="3">
         <v>15340</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="1">
         <v>45084.25</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="2">
         <v>45083</v>
       </c>
       <c r="D144">
         <v>23</v>
       </c>
-      <c r="E144" s="4">
+      <c r="E144" s="3">
         <v>13171</v>
       </c>
-      <c r="F144" s="4">
+      <c r="F144" s="3">
         <v>12988</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>0</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="1">
         <v>45084.291666666664</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="2">
         <v>45083</v>
       </c>
       <c r="D145">
         <v>24</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E145" s="3">
         <v>12140</v>
       </c>
-      <c r="F145" s="4">
+      <c r="F145" s="3">
         <v>11893</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>0</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="1">
         <v>45084.333333333336</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="2">
         <v>45084</v>
       </c>
       <c r="D146">
         <v>1</v>
       </c>
-      <c r="E146" s="4">
+      <c r="E146" s="3">
         <v>11101</v>
       </c>
-      <c r="F146" s="4">
+      <c r="F146" s="3">
         <v>11149</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>0</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="1">
         <v>45084.375</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="2">
         <v>45084</v>
       </c>
       <c r="D147">
         <v>2</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E147" s="3">
         <v>10787</v>
       </c>
-      <c r="F147" s="4">
+      <c r="F147" s="3">
         <v>10514</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>0</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="1">
         <v>45084.416666666664</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="2">
         <v>45084</v>
       </c>
       <c r="D148">
         <v>3</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E148" s="3">
         <v>10355</v>
       </c>
-      <c r="F148" s="4">
+      <c r="F148" s="3">
         <v>10097</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>0</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="1">
         <v>45084.458333333336</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="2">
         <v>45084</v>
       </c>
       <c r="D149">
         <v>4</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E149" s="3">
         <v>10171</v>
       </c>
-      <c r="F149" s="4">
+      <c r="F149" s="3">
         <v>9879</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>0</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="1">
         <v>45084.5</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="2">
         <v>45084</v>
       </c>
       <c r="D150">
         <v>5</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E150" s="3">
         <v>10292</v>
       </c>
-      <c r="F150" s="4">
+      <c r="F150" s="3">
         <v>9943</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="1">
         <v>45084.541666666664</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="2">
         <v>45084</v>
       </c>
       <c r="D151">
         <v>6</v>
       </c>
-      <c r="E151" s="4">
+      <c r="E151" s="3">
         <v>10443</v>
       </c>
-      <c r="F151" s="4">
+      <c r="F151" s="3">
         <v>10098</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>0</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="1">
         <v>45084.583333333336</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="2">
         <v>45084</v>
       </c>
       <c r="D152">
         <v>7</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E152" s="3">
         <v>10747</v>
       </c>
-      <c r="F152" s="4">
+      <c r="F152" s="3">
         <v>10258</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="1">
         <v>45084.625</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="2">
         <v>45084</v>
       </c>
       <c r="D153">
         <v>8</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E153" s="3">
         <v>10937</v>
       </c>
-      <c r="F153" s="4">
+      <c r="F153" s="3">
         <v>10664</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="1">
         <v>45084.666666666664</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="2">
         <v>45084</v>
       </c>
       <c r="D154">
         <v>9</v>
       </c>
-      <c r="E154" s="4">
+      <c r="E154" s="3">
         <v>11149</v>
       </c>
-      <c r="F154" s="4">
+      <c r="F154" s="3">
         <v>10952</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="1">
         <v>45084.708333333336</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="2">
         <v>45084</v>
       </c>
       <c r="D155">
         <v>10</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E155" s="3">
         <v>11507</v>
       </c>
-      <c r="F155" s="4">
+      <c r="F155" s="3">
         <v>11391</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>0</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="1">
         <v>45084.75</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="2">
         <v>45084</v>
       </c>
       <c r="D156">
         <v>11</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156" s="3">
         <v>12087</v>
       </c>
-      <c r="F156" s="4">
+      <c r="F156" s="3">
         <v>11971</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>0</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="1">
         <v>45084.791666666664</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="2">
         <v>45084</v>
       </c>
       <c r="D157">
         <v>12</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E157" s="3">
         <v>12721</v>
       </c>
-      <c r="F157" s="4">
+      <c r="F157" s="3">
         <v>12691</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="1">
         <v>45084.833333333336</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="2">
         <v>45084</v>
       </c>
       <c r="D158">
         <v>13</v>
       </c>
-      <c r="E158" s="4">
+      <c r="E158" s="3">
         <v>13672</v>
       </c>
-      <c r="F158" s="4">
+      <c r="F158" s="3">
         <v>13380</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>0</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="1">
         <v>45084.875</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="2">
         <v>45084</v>
       </c>
       <c r="D159">
         <v>14</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E159" s="3">
         <v>14418</v>
       </c>
-      <c r="F159" s="4">
+      <c r="F159" s="3">
         <v>14224</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>0</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="1">
         <v>45084.916666666664</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="2">
         <v>45084</v>
       </c>
       <c r="D160">
         <v>15</v>
       </c>
-      <c r="E160" s="4">
+      <c r="E160" s="3">
         <v>15204</v>
       </c>
-      <c r="F160" s="4">
+      <c r="F160" s="3">
         <v>15077</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>0</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="1">
         <v>45084.958333333336</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="2">
         <v>45084</v>
       </c>
       <c r="D161">
         <v>16</v>
       </c>
-      <c r="E161" s="4">
+      <c r="E161" s="3">
         <v>15851</v>
       </c>
-      <c r="F161" s="4">
+      <c r="F161" s="3">
         <v>15322</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="1">
         <v>45085</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="2">
         <v>45084</v>
       </c>
       <c r="D162">
         <v>17</v>
       </c>
-      <c r="E162" s="4">
+      <c r="E162" s="3">
         <v>16106</v>
       </c>
-      <c r="F162" s="4">
+      <c r="F162" s="3">
         <v>15839</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>0</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="1">
         <v>45085.041666666664</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="2">
         <v>45084</v>
       </c>
       <c r="D163">
         <v>18</v>
       </c>
-      <c r="E163" s="4">
+      <c r="E163" s="3">
         <v>16209</v>
       </c>
-      <c r="F163" s="4">
+      <c r="F163" s="3">
         <v>16293</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>0</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="1">
         <v>45085.083333333336</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="2">
         <v>45084</v>
       </c>
       <c r="D164">
         <v>19</v>
       </c>
-      <c r="E164" s="4">
+      <c r="E164" s="3">
         <v>16013</v>
       </c>
-      <c r="F164" s="4">
+      <c r="F164" s="3">
         <v>16229</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>0</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="1">
         <v>45085.125</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="2">
         <v>45084</v>
       </c>
       <c r="D165">
         <v>20</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E165" s="3">
         <v>15530</v>
       </c>
-      <c r="F165" s="4">
+      <c r="F165" s="3">
         <v>15685</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="1">
         <v>45085.166666666664</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="2">
         <v>45084</v>
       </c>
       <c r="D166">
         <v>21</v>
       </c>
-      <c r="E166" s="4">
+      <c r="E166" s="3">
         <v>14928</v>
       </c>
-      <c r="F166" s="4">
+      <c r="F166" s="3">
         <v>15140</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>0</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="1">
         <v>45085.208333333336</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="2">
         <v>45084</v>
       </c>
       <c r="D167">
         <v>22</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E167" s="3">
         <v>13983</v>
       </c>
-      <c r="F167" s="4">
+      <c r="F167" s="3">
         <v>15083</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>0</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="1">
         <v>45085.25</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168" s="2">
         <v>45084</v>
       </c>
       <c r="D168">
         <v>23</v>
       </c>
-      <c r="E168" s="4">
+      <c r="E168" s="3">
         <v>12990</v>
       </c>
-      <c r="F168" s="4">
+      <c r="F168" s="3">
         <v>13175</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="1">
         <v>45085.291666666664</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="2">
         <v>45084</v>
       </c>
       <c r="D169">
         <v>24</v>
       </c>
-      <c r="E169" s="4">
+      <c r="E169" s="3">
         <v>11852</v>
       </c>
-      <c r="F169" s="4">
+      <c r="F169" s="3">
         <v>12069</v>
       </c>
     </row>
@@ -9088,24 +10089,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5EE97E-032C-48EB-90E9-8CAA9444748B}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="13.05078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9113,7 +10114,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9121,7 +10122,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9130,7 +10131,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9139,23 +10140,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9164,63 +10165,63 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9229,39 +10230,40 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="17">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="16">
+        <f>(83+88)/2</f>
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9269,7 +10271,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9277,7 +10279,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9285,7 +10287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9293,7 +10295,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9306,4 +10308,293 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218AEF1C-D783-4B05-B1FE-2CEB946DB4F4}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="17"/>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.34695500000000001</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.172072</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4.4778999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>5.22E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>7.6892000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.22913900000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.414109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.59119500000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.71903899999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.805176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.85775100000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.85792500000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5.22E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.73205200000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7.6892000000000002E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.62811899999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.22913900000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.53499699999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.414109</v>
+      </c>
+      <c r="C17">
+        <v>0.34695500000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.59119500000000003</v>
+      </c>
+      <c r="C18">
+        <v>0.172072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.71903899999999998</v>
+      </c>
+      <c r="C19">
+        <v>4.4778999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.805176</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="17">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.85775100000000004</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="17">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.85792500000000005</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="17">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.73205200000000004</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="17">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.62811899999999998</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="17">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.53499699999999994</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>